--- a/input_real/Table2_sea_deities.xlsx
+++ b/input_real/Table2_sea_deities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="328">
   <si>
     <t>Root</t>
   </si>
@@ -997,6 +997,12 @@
   </si>
   <si>
     <t>namakai</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>associated with the sea</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1081,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,8 +1109,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1119,8 +1127,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1134,6 +1143,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1147,9 +1157,20 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1507,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:G137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1521,9 +1542,10 @@
     <col min="4" max="4" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1542,8 +1564,11 @@
       <c r="F1" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1562,8 +1587,11 @@
       <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1582,8 +1610,11 @@
       <c r="F3" s="5" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>283</v>
       </c>
@@ -1602,8 +1633,11 @@
       <c r="F4" s="5" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1622,8 +1656,11 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="8" t="s">
         <v>283</v>
       </c>
@@ -1642,8 +1679,11 @@
       <c r="F6" s="5" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
         <v>283</v>
       </c>
@@ -1662,8 +1702,11 @@
       <c r="F7" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -1682,8 +1725,11 @@
       <c r="F8" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1702,8 +1748,11 @@
       <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1722,8 +1771,11 @@
       <c r="F10" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,8 +1794,11 @@
       <c r="F11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="8" t="s">
         <v>283</v>
       </c>
@@ -1762,8 +1817,11 @@
       <c r="F12" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
@@ -1782,8 +1840,11 @@
       <c r="F13" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1802,8 +1863,11 @@
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="8" t="s">
         <v>283</v>
       </c>
@@ -1822,8 +1886,11 @@
       <c r="F15" s="5" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="8" t="s">
         <v>283</v>
       </c>
@@ -1842,8 +1909,11 @@
       <c r="F16" s="5" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,8 +1932,11 @@
       <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1882,8 +1955,11 @@
       <c r="F18" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>4</v>
       </c>
@@ -1902,8 +1978,11 @@
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1922,8 +2001,11 @@
       <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1942,8 +2024,11 @@
       <c r="F21" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1962,8 +2047,11 @@
       <c r="F22" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="8" t="s">
         <v>4</v>
       </c>
@@ -1982,8 +2070,11 @@
       <c r="F23" s="5" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
@@ -2002,8 +2093,11 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -2022,8 +2116,11 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
@@ -2042,8 +2139,11 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,8 +2162,11 @@
       <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
         <v>4</v>
       </c>
@@ -2082,8 +2185,11 @@
       <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
         <v>4</v>
       </c>
@@ -2102,8 +2208,11 @@
       <c r="F29" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
         <v>4</v>
       </c>
@@ -2122,8 +2231,11 @@
       <c r="F30" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -2142,8 +2254,11 @@
       <c r="F31" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2162,8 +2277,11 @@
       <c r="F32" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -2182,8 +2300,11 @@
       <c r="F33" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
         <v>283</v>
       </c>
@@ -2202,8 +2323,11 @@
       <c r="F34" s="5" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
         <v>4</v>
       </c>
@@ -2222,8 +2346,11 @@
       <c r="F35" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
@@ -2242,8 +2369,11 @@
       <c r="F36" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
         <v>4</v>
       </c>
@@ -2262,8 +2392,11 @@
       <c r="F37" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
         <v>4</v>
       </c>
@@ -2282,8 +2415,11 @@
       <c r="F38" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
         <v>4</v>
       </c>
@@ -2302,8 +2438,11 @@
       <c r="F39" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
         <v>4</v>
       </c>
@@ -2322,8 +2461,11 @@
       <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>4</v>
       </c>
@@ -2342,8 +2484,11 @@
       <c r="F41" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
         <v>283</v>
       </c>
@@ -2362,8 +2507,11 @@
       <c r="F42" s="5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2382,8 +2530,11 @@
       <c r="F43" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2402,8 +2553,11 @@
       <c r="F44" s="5" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2422,8 +2576,11 @@
       <c r="F45" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>4</v>
       </c>
@@ -2442,8 +2599,11 @@
       <c r="F46" s="5" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>4</v>
       </c>
@@ -2462,8 +2622,11 @@
       <c r="F47" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>4</v>
       </c>
@@ -2482,8 +2645,11 @@
       <c r="F48" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>4</v>
       </c>
@@ -2502,8 +2668,11 @@
       <c r="F49" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>4</v>
       </c>
@@ -2522,8 +2691,11 @@
       <c r="F50" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>4</v>
       </c>
@@ -2542,8 +2714,11 @@
       <c r="F51" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>4</v>
       </c>
@@ -2562,8 +2737,11 @@
       <c r="F52" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>4</v>
       </c>
@@ -2582,8 +2760,11 @@
       <c r="F53" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -2602,8 +2783,11 @@
       <c r="F54" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>4</v>
       </c>
@@ -2622,8 +2806,11 @@
       <c r="F55" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>4</v>
       </c>
@@ -2642,8 +2829,11 @@
       <c r="F56" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2662,8 +2852,11 @@
       <c r="F57" s="5" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2682,8 +2875,11 @@
       <c r="F58" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>4</v>
       </c>
@@ -2702,8 +2898,11 @@
       <c r="F59" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>4</v>
       </c>
@@ -2722,8 +2921,11 @@
       <c r="F60" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6">
+      <c r="G60" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
@@ -2742,8 +2944,11 @@
       <c r="F61" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="G61" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>4</v>
       </c>
@@ -2762,8 +2967,11 @@
       <c r="F62" s="5" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="8" t="s">
         <v>283</v>
       </c>
@@ -2782,8 +2990,11 @@
       <c r="F63" s="5" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="G63" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>4</v>
       </c>
@@ -2802,8 +3013,11 @@
       <c r="F64" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="G64" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>4</v>
       </c>
@@ -2822,8 +3036,11 @@
       <c r="F65" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="G65" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="8" t="s">
         <v>283</v>
       </c>
@@ -2842,8 +3059,11 @@
       <c r="F66" s="5" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="G66" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
         <v>4</v>
       </c>
@@ -2862,8 +3082,11 @@
       <c r="F67" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="G67" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="3" t="s">
         <v>4</v>
       </c>
@@ -2882,8 +3105,11 @@
       <c r="F68" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="G68" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>4</v>
       </c>
@@ -2902,8 +3128,11 @@
       <c r="F69" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="G69" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -2922,8 +3151,11 @@
       <c r="F70" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>4</v>
       </c>
@@ -2942,8 +3174,11 @@
       <c r="F71" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="G71" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +3197,11 @@
       <c r="F72" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="G72" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>4</v>
       </c>
@@ -2982,8 +3220,11 @@
       <c r="F73" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="G73" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="8" t="s">
         <v>283</v>
       </c>
@@ -3002,8 +3243,11 @@
       <c r="F74" s="5" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="G74" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>4</v>
       </c>
@@ -3022,8 +3266,11 @@
       <c r="F75" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="G75" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>4</v>
       </c>
@@ -3042,8 +3289,11 @@
       <c r="F76" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="G76" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>4</v>
       </c>
@@ -3062,8 +3312,11 @@
       <c r="F77" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="G77" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>4</v>
       </c>
@@ -3082,8 +3335,11 @@
       <c r="F78" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="G78" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
         <v>4</v>
       </c>
@@ -3102,8 +3358,11 @@
       <c r="F79" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
         <v>4</v>
       </c>
@@ -3122,8 +3381,11 @@
       <c r="F80" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="G80" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="8" t="s">
         <v>283</v>
       </c>
@@ -3142,8 +3404,11 @@
       <c r="F81" s="5" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="G81" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="8" t="s">
         <v>283</v>
       </c>
@@ -3162,8 +3427,11 @@
       <c r="F82" s="5" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>4</v>
       </c>
@@ -3182,8 +3450,11 @@
       <c r="F83" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="G83" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>4</v>
       </c>
@@ -3202,8 +3473,11 @@
       <c r="F84" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>4</v>
       </c>
@@ -3222,8 +3496,11 @@
       <c r="F85" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="G85" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="8" t="s">
         <v>283</v>
       </c>
@@ -3242,8 +3519,11 @@
       <c r="F86" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="G86" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>4</v>
       </c>
@@ -3262,8 +3542,11 @@
       <c r="F87" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="G87" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>4</v>
       </c>
@@ -3282,8 +3565,11 @@
       <c r="F88" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="G88" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="8" t="s">
         <v>283</v>
       </c>
@@ -3302,8 +3588,11 @@
       <c r="F89" s="5" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="90" spans="1:6">
+      <c r="G89" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="8" t="s">
         <v>283</v>
       </c>
@@ -3322,8 +3611,11 @@
       <c r="F90" s="5" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="91" spans="1:6">
+      <c r="G90" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="8" t="s">
         <v>283</v>
       </c>
@@ -3342,8 +3634,11 @@
       <c r="F91" s="5" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="92" spans="1:6">
+      <c r="G91" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="8" t="s">
         <v>283</v>
       </c>
@@ -3362,8 +3657,11 @@
       <c r="F92" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="93" spans="1:6">
+      <c r="G92" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="3" t="s">
         <v>4</v>
       </c>
@@ -3382,8 +3680,11 @@
       <c r="F93" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="1:6">
+      <c r="G93" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="3" t="s">
         <v>4</v>
       </c>
@@ -3402,8 +3703,11 @@
       <c r="F94" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
+      <c r="G94" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="3" t="s">
         <v>4</v>
       </c>
@@ -3422,8 +3726,11 @@
       <c r="F95" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="1:6">
+      <c r="G95" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -3442,8 +3749,11 @@
       <c r="F96" s="5" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="7" t="s">
         <v>4</v>
       </c>
@@ -3462,8 +3772,11 @@
       <c r="F97" s="5" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="3" t="s">
         <v>4</v>
       </c>
@@ -3482,8 +3795,11 @@
       <c r="F98" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="3" t="s">
         <v>4</v>
       </c>
@@ -3502,8 +3818,11 @@
       <c r="F99" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="8" t="s">
         <v>283</v>
       </c>
@@ -3522,8 +3841,11 @@
       <c r="F100" s="5" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="8" t="s">
         <v>283</v>
       </c>
@@ -3542,8 +3864,11 @@
       <c r="F101" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="3" t="s">
         <v>4</v>
       </c>
@@ -3562,8 +3887,11 @@
       <c r="F102" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="3" t="s">
         <v>4</v>
       </c>
@@ -3582,8 +3910,11 @@
       <c r="F103" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="7" t="s">
         <v>4</v>
       </c>
@@ -3602,8 +3933,11 @@
       <c r="F104" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="3" t="s">
         <v>4</v>
       </c>
@@ -3622,8 +3956,11 @@
       <c r="F105" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="3" t="s">
         <v>4</v>
       </c>
@@ -3642,8 +3979,11 @@
       <c r="F106" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="3" t="s">
         <v>4</v>
       </c>
@@ -3662,8 +4002,11 @@
       <c r="F107" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="3" t="s">
         <v>4</v>
       </c>
@@ -3682,8 +4025,11 @@
       <c r="F108" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -3702,8 +4048,11 @@
       <c r="F109" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="3" t="s">
         <v>4</v>
       </c>
@@ -3722,8 +4071,11 @@
       <c r="F110" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="3" t="s">
         <v>4</v>
       </c>
@@ -3742,8 +4094,11 @@
       <c r="F111" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="3" t="s">
         <v>4</v>
       </c>
@@ -3762,8 +4117,11 @@
       <c r="F112" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="3" t="s">
         <v>4</v>
       </c>
@@ -3782,8 +4140,11 @@
       <c r="F113" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="3" t="s">
         <v>4</v>
       </c>
@@ -3802,8 +4163,11 @@
       <c r="F114" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="7" t="s">
         <v>4</v>
       </c>
@@ -3822,8 +4186,11 @@
       <c r="F115" s="5" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="3" t="s">
         <v>4</v>
       </c>
@@ -3842,8 +4209,11 @@
       <c r="F116" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="3" t="s">
         <v>4</v>
       </c>
@@ -3862,8 +4232,11 @@
       <c r="F117" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="3" t="s">
         <v>4</v>
       </c>
@@ -3882,8 +4255,11 @@
       <c r="F118" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="3" t="s">
         <v>4</v>
       </c>
@@ -3902,8 +4278,11 @@
       <c r="F119" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="3" t="s">
         <v>4</v>
       </c>
@@ -3922,8 +4301,11 @@
       <c r="F120" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="8" t="s">
         <v>283</v>
       </c>
@@ -3942,8 +4324,11 @@
       <c r="F121" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="8" t="s">
         <v>283</v>
       </c>
@@ -3962,8 +4347,11 @@
       <c r="F122" s="5" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="3" t="s">
         <v>4</v>
       </c>
@@ -3982,8 +4370,11 @@
       <c r="F123" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="8" t="s">
         <v>283</v>
       </c>
@@ -4002,8 +4393,11 @@
       <c r="F124" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="3" t="s">
         <v>4</v>
       </c>
@@ -4022,8 +4416,11 @@
       <c r="F125" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="8" t="s">
         <v>283</v>
       </c>
@@ -4042,8 +4439,11 @@
       <c r="F126" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="8" t="s">
         <v>283</v>
       </c>
@@ -4062,8 +4462,11 @@
       <c r="F127" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="8" t="s">
         <v>283</v>
       </c>
@@ -4082,8 +4485,11 @@
       <c r="F128" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="3" t="s">
         <v>4</v>
       </c>
@@ -4102,8 +4508,11 @@
       <c r="F129" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="3" t="s">
         <v>4</v>
       </c>
@@ -4122,8 +4531,11 @@
       <c r="F130" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="3" t="s">
         <v>4</v>
       </c>
@@ -4142,8 +4554,11 @@
       <c r="F131" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="3" t="s">
         <v>4</v>
       </c>
@@ -4162,8 +4577,11 @@
       <c r="F132" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="8" t="s">
         <v>283</v>
       </c>
@@ -4182,8 +4600,11 @@
       <c r="F133" s="5" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="8" t="s">
         <v>283</v>
       </c>
@@ -4202,8 +4623,11 @@
       <c r="F134" s="5" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="3" t="s">
         <v>4</v>
       </c>
@@ -4222,8 +4646,11 @@
       <c r="F135" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="8" t="s">
         <v>283</v>
       </c>
@@ -4242,8 +4669,11 @@
       <c r="F136" s="5" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="8" t="s">
         <v>283</v>
       </c>
@@ -4261,15 +4691,15 @@
       </c>
       <c r="F137" s="5" t="s">
         <v>280</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:I140">
     <sortCondition ref="E2:E140"/>
   </sortState>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
